--- a/Empresas.xlsx
+++ b/Empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.marques\Desktop\Mantis-Python-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FA90B-C5CC-45E2-BB1A-10165692DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27552EF5-D273-4560-A9D7-FC9E4C13AD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D418D22-AFB1-4BAA-B87C-8A8ACB09FA3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Razão Social</t>
   </si>
@@ -48,33 +48,6 @@
   </si>
   <si>
     <t>Chave API</t>
-  </si>
-  <si>
-    <t>COMERCIO DE BATATAS CIANFLONE LTDA</t>
-  </si>
-  <si>
-    <t>04.230.377/0001-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2eb64fc1-98f9-4702-a5fd-7cdedfd8198b        </t>
-  </si>
-  <si>
-    <t>IPB 2020</t>
-  </si>
-  <si>
-    <t>37.597.845/0001-16</t>
-  </si>
-  <si>
-    <t>6478e700-d89b-4d5b-b5eb-6a1129341b29</t>
-  </si>
-  <si>
-    <t>LY</t>
-  </si>
-  <si>
-    <t>21.507.636/0001-02</t>
-  </si>
-  <si>
-    <t>a3320316-c299-4254-a0e0-3927dd876ae0</t>
   </si>
 </sst>
 </file>
@@ -118,10 +91,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B9F3FE-046B-49AD-ADD8-F8BBF8CF88A6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,47 +457,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>72012650082</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Empresas.xlsx
+++ b/Empresas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WI140\Desktop\Mantis-App-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3881CAEE-76AE-42CB-94B8-87D63377FA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B32A7D-2724-49C1-BF21-79852AED3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D418D22-AFB1-4BAA-B87C-8A8ACB09FA3D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Razão Social</t>
   </si>
@@ -47,27 +47,12 @@
   <si>
     <t>Chave API</t>
   </si>
-  <si>
-    <t>29.024.277/0001-36</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>31.487.442/0001-38</t>
-  </si>
-  <si>
-    <t>a06a8bc3-9b7f-4d97-b45d-15549eee8063</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +73,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6D6F70"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +102,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF4A713C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF567D52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +464,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -473,43 +485,36 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>27406271069</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>27406271069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
